--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB7D977-7C9D-48FF-8517-D418F4D06BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8A4AD-1890-4A22-A081-12FE90070718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="7" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="json to BD" sheetId="6" r:id="rId6"/>
     <sheet name="make &amp; model" sheetId="7" r:id="rId7"/>
     <sheet name="middleware" sheetId="8" r:id="rId8"/>
+    <sheet name="populate 2 selects" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -204,6 +205,9 @@
   </si>
   <si>
     <t>php - laravel project deploy to Heroku but bootstrap styles missing - Stack Overflow</t>
+  </si>
+  <si>
+    <t>Demo - Auto populate Dropdown with jQuery AJAX in Laravel 8 (makitweb.com)</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894A09DE-932F-4F8F-B602-A597D7612938}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1489,4 +1493,25 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48273F13-B862-4E7F-9BDB-A61D98CF3000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://makitweb.com/demos/auto-populate-dropdown-with-jquery-ajax-in-laravel-8" xr:uid="{982CD53A-9786-4186-A686-4E61C17CDDE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B8A4AD-1890-4A22-A081-12FE90070718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21162F55-F0ED-4F7D-8442-03451D28ECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="1968" yWindow="-11772" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Demo - Auto populate Dropdown with jQuery AJAX in Laravel 8 (makitweb.com)</t>
+  </si>
+  <si>
+    <t>ROUTES::</t>
+  </si>
+  <si>
+    <t>CAR CONTROLLER</t>
   </si>
 </sst>
 </file>
@@ -759,6 +765,99 @@
         <a:xfrm>
           <a:off x="8488680" y="662940"/>
           <a:ext cx="6487430" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>150669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7534860-3B3D-441E-A132-BAE9804737F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="8164064" cy="1247949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438977</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57631182-833B-4242-85E0-1B8A29663D32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2011680"/>
+          <a:ext cx="5925377" cy="5715798"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,9 +1596,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48273F13-B862-4E7F-9BDB-A61D98CF3000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1508,10 +1609,21 @@
         <v>54</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://makitweb.com/demos/auto-populate-dropdown-with-jquery-ajax-in-laravel-8" xr:uid="{982CD53A-9786-4186-A686-4E61C17CDDE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21162F55-F0ED-4F7D-8442-03451D28ECA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59E73F-A775-40EB-84F3-0BF9C2E7FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="-11772" windowWidth="17280" windowHeight="9072" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE59E73F-A775-40EB-84F3-0BF9C2E7FD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02246A-1633-460E-9D2B-21DBDC2F7103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="2" activeTab="8" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="9" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="make &amp; model" sheetId="7" r:id="rId7"/>
     <sheet name="middleware" sheetId="8" r:id="rId8"/>
     <sheet name="populate 2 selects" sheetId="9" r:id="rId9"/>
+    <sheet name="faker e logo" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -214,6 +215,15 @@
   </si>
   <si>
     <t>CAR CONTROLLER</t>
+  </si>
+  <si>
+    <t>&lt;link rel="shortcut icon" href="{{ asset('favicon.ico') }}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="icon" type="image/png" href="{{ asset('favicon.png') }}"&gt;</t>
+  </si>
+  <si>
+    <t>faker not working</t>
   </si>
 </sst>
 </file>
@@ -1195,6 +1205,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7395250-59C0-4B08-AB19-CF50E9334F30}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E258EE42-B525-46D1-AA81-F9536619475E}">
   <dimension ref="A1:S13"/>
@@ -1598,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48273F13-B862-4E7F-9BDB-A61D98CF3000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D02246A-1633-460E-9D2B-21DBDC2F7103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF8318-6139-4063-B67A-25E3B055E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="9" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="10" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="middleware" sheetId="8" r:id="rId8"/>
     <sheet name="populate 2 selects" sheetId="9" r:id="rId9"/>
     <sheet name="faker e logo" sheetId="10" r:id="rId10"/>
+    <sheet name="upload images" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -224,6 +225,12 @@
   </si>
   <si>
     <t>faker not working</t>
+  </si>
+  <si>
+    <t>Laravel 8 Image Upload Tutorial Example - ItSolutionStuff.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVIEW DA IMAGEM ANTES DE SUBMETER </t>
   </si>
 </sst>
 </file>
@@ -868,6 +875,143 @@
         <a:xfrm>
           <a:off x="0" y="2011680"/>
           <a:ext cx="5925377" cy="5715798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>125033</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE4F780-3DFF-4750-BB7F-847AB2BCA2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8659433" cy="4239217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>410483</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55ABDC84-4354-4876-BFC6-530A87F5C820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4389120"/>
+          <a:ext cx="6506483" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>477337</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C247AD7-0D20-4520-B90A-0E035CC12497}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="1097280"/>
+          <a:ext cx="7792537" cy="3772426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7395250-59C0-4B08-AB19-CF50E9334F30}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1232,6 +1376,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E981B977-AF97-487E-81B7-751DB37AAF6F}">
+  <dimension ref="P1:P6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P1" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1" display="https://www.itsolutionstuff.com/post/laravel-8-image-upload-tutorial-exampleexample.html" xr:uid="{6896447F-82FD-4127-BFA6-9EE5C5B6A598}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFF8318-6139-4063-B67A-25E3B055E6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C3EA3-C122-442A-AFEF-6EB6750C4DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="3" activeTab="10" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="2664" yWindow="-11076" windowWidth="17280" windowHeight="9072" firstSheet="10" activeTab="11" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="populate 2 selects" sheetId="9" r:id="rId9"/>
     <sheet name="faker e logo" sheetId="10" r:id="rId10"/>
     <sheet name="upload images" sheetId="11" r:id="rId11"/>
+    <sheet name="upload images cloudinary" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -231,13 +233,58 @@
   </si>
   <si>
     <t xml:space="preserve">PREVIEW DA IMAGEM ANTES DE SUBMETER </t>
+  </si>
+  <si>
+    <t>Laravel Media Upload to Cloudinary on Heroku (hashnode.dev)</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF88846F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// $imageName = time().'.'.$request-&gt;image-&gt;extension();  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF88846F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// $destination = public_path('profile_pics');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF88846F"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// $request-&gt;image-&gt;move($destination,$imageName);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +326,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF88846F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -301,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -309,6 +368,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,6 +1074,55 @@
         <a:xfrm>
           <a:off x="9144000" y="1097280"/>
           <a:ext cx="7792537" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>277880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD25074-686C-49A0-A78C-ADD4A4D19E33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="11860280" cy="3210373"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E981B977-AF97-487E-81B7-751DB37AAF6F}">
-  <dimension ref="P1:P6"/>
+  <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,9 +1510,49 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P1" r:id="rId1" display="https://www.itsolutionstuff.com/post/laravel-8-image-upload-tutorial-exampleexample.html" xr:uid="{6896447F-82FD-4127-BFA6-9EE5C5B6A598}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7FD34-A0EF-4E94-AFF2-6806EBCC23F5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://alemsbaja.hashnode.dev/laravel-8-media-upload-to-cloudinary-on-heroku" xr:uid="{03FFA511-01EB-44BE-9E84-7B9DE5760DFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5C3EA3-C122-442A-AFEF-6EB6750C4DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263AB22-56EB-492E-B748-596510A39625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2664" yWindow="-11076" windowWidth="17280" windowHeight="9072" firstSheet="10" activeTab="11" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" tabRatio="927" activeTab="7" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,9 @@
     <sheet name="faker e logo" sheetId="10" r:id="rId10"/>
     <sheet name="upload images" sheetId="11" r:id="rId11"/>
     <sheet name="upload images cloudinary" sheetId="12" r:id="rId12"/>
+    <sheet name="populate select country" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -278,6 +278,12 @@
       </rPr>
       <t>// $request-&gt;image-&gt;move($destination,$imageName);</t>
     </r>
+  </si>
+  <si>
+    <t>criar o modelo e a migration</t>
+  </si>
+  <si>
+    <t>seeder aqui, atenção use File;</t>
   </si>
 </sst>
 </file>
@@ -1123,6 +1129,99 @@
         <a:xfrm>
           <a:off x="0" y="182880"/>
           <a:ext cx="11860280" cy="3210373"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591313</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359A016E-F3CA-49D2-8D4F-A4260F18349D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5468113" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334187</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C02381-170D-4932-9334-A633E0AB736A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5820587" cy="6535062"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7FD34-A0EF-4E94-AFF2-6806EBCC23F5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1553,6 +1652,40 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://alemsbaja.hashnode.dev/laravel-8-media-upload-to-cloudinary-on-heroku" xr:uid="{03FFA511-01EB-44BE-9E84-7B9DE5760DFF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB0427-137B-402E-AD57-10B125BC3EDD}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.itsolutionstuff.com/post/how-to-create-seeder-with-json-data-in-laravelexample.html" xr:uid="{281F1DEB-994D-4083-9252-CE5E508DAA44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -1866,7 +1999,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,7 +2061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894A09DE-932F-4F8F-B602-A597D7612938}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6263AB22-56EB-492E-B748-596510A39625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A3B4D7-AF82-4E69-BCB9-7060C9377B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" tabRatio="927" activeTab="7" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="927" firstSheet="1" activeTab="11" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -1593,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E981B977-AF97-487E-81B7-751DB37AAF6F}">
   <dimension ref="B1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,9 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7FD34-A0EF-4E94-AFF2-6806EBCC23F5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2061,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894A09DE-932F-4F8F-B602-A597D7612938}">
   <dimension ref="A2:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/project_doc.xlsx
+++ b/project_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\auto-sys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A3B4D7-AF82-4E69-BCB9-7060C9377B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D578262-5B8E-4894-8869-597F5A185E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="927" firstSheet="1" activeTab="11" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="927" firstSheet="7" activeTab="17" xr2:uid="{A6D9E021-A0DD-453D-A47E-578BB5AF2994}"/>
   </bookViews>
   <sheets>
     <sheet name="Create and deploy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,12 @@
     <sheet name="faker e logo" sheetId="10" r:id="rId10"/>
     <sheet name="upload images" sheetId="11" r:id="rId11"/>
     <sheet name="upload images cloudinary" sheetId="12" r:id="rId12"/>
-    <sheet name="populate select country" sheetId="13" r:id="rId13"/>
+    <sheet name="factory" sheetId="14" r:id="rId13"/>
+    <sheet name="paginator" sheetId="15" r:id="rId14"/>
+    <sheet name="populate select country" sheetId="13" r:id="rId15"/>
+    <sheet name="default configs_auth" sheetId="16" r:id="rId16"/>
+    <sheet name="auth breeze" sheetId="17" r:id="rId17"/>
+    <sheet name="vue" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
   <si>
     <t>1. composer create-project laravel/laravel example-app</t>
   </si>
@@ -284,13 +289,704 @@
   </si>
   <si>
     <t>seeder aqui, atenção use File;</t>
+  </si>
+  <si>
+    <t>factory de slug</t>
+  </si>
+  <si>
+    <t>How to use Slug in Laravel Factory (laravel-school.com)</t>
+  </si>
+  <si>
+    <t>paginator css</t>
+  </si>
+  <si>
+    <r>
+      <t>"fzaninotto/faker"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^1.5"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>no caso do faker não funcionar no heroku, passar o fakerphp/faker de dev-require para require no composer.json</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"devDependencies"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"axios"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^0.25"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"laravel-mix"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^6.0.6"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"lodash"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^4.17.19"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"postcss"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^8.1.14"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"bootstrap"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^4.0.0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"popper.js"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^1.12"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"jquery"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^3.2"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"vue"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFCFCFC2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"^2.5.7"</t>
+    </r>
+  </si>
+  <si>
+    <t>composer require laravel/ui</t>
+  </si>
+  <si>
+    <t>php artisan ui vue --auth</t>
+  </si>
+  <si>
+    <r>
+      <t>Add </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASSET_URL=public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> in your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.env</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> file and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF232629"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>php artisan config:cache</t>
+    </r>
+  </si>
+  <si>
+    <t>php - Add Public to asset path in Laravel - Stack Overflow</t>
+  </si>
+  <si>
+    <t>ASSET PATH</t>
+  </si>
+  <si>
+    <t>CDN css not working</t>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet" href="https://stackpath.bootstrapcdn.com/bootstrap/4.5.0/css/bootstrap.min.css" integrity="sha384-9aIt2nRpC12Uk9gS9baDl411NQApFmC26EwAOH8WgZl5MYYxFfc+NcPb1dKGj7Sk" crossorigin="anonymous"&gt;</t>
+  </si>
+  <si>
+    <t>     </t>
+  </si>
+  <si>
+    <t>adicionar user admin padrão no databaseSeeder</t>
+  </si>
+  <si>
+    <r>
+      <t>   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color rgb="FF66D9EF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>User</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>([</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'name'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'admin'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'email'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'a@a'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'password'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF92672"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFA6E22E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>bcrypt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFE6DB74"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'1111'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFF8F8F2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>        ]);</t>
+  </si>
+  <si>
+    <t>2.php artisan breeze:install</t>
+  </si>
+  <si>
+    <t>1.composer require laravel/breeze</t>
+  </si>
+  <si>
+    <t>3.migrate</t>
+  </si>
+  <si>
+    <t>4.npm run install</t>
+  </si>
+  <si>
+    <t>5.npm run dev</t>
+  </si>
+  <si>
+    <t>php artisan make:controller Api/CompanyController --api --resource --model=Company</t>
+  </si>
+  <si>
+    <t>Route::apiResource('companies', \App\Http\Controllers\Api\CompanyController::class);</t>
+  </si>
+  <si>
+    <t>php artisan make:resource CompanyResource</t>
+  </si>
+  <si>
+    <t>php artisan make:request CompanyRequest</t>
+  </si>
+  <si>
+    <t>npm install vue@next vue-router@next vue-loader@next</t>
+  </si>
+  <si>
+    <t>NÃO ESQUECER npm run watch para ver alterações</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,13 +1040,80 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color rgb="FF66D9EF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCFCFC2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF232629"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF92672"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFA6E22E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE6DB74"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -366,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,6 +1141,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -478,6 +1254,285 @@
         <a:xfrm>
           <a:off x="480060" y="388620"/>
           <a:ext cx="4658375" cy="4639322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>315475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>145158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9666F6-54A4-4BA0-8AC2-266BC6F81E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182880"/>
+          <a:ext cx="8240275" cy="2705478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>591313</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57541</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359A016E-F3CA-49D2-8D4F-A4260F18349D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5468113" cy="2800741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>334187</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C02381-170D-4932-9334-A633E0AB736A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5820587" cy="6535062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>153102</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516CFC86-DBE0-46C9-92B3-583E9126C026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1668780"/>
+          <a:ext cx="5029902" cy="1800476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>529096</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE6FAEE-E348-414C-8A1D-B262DF727C0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5052060" y="1661160"/>
+          <a:ext cx="10107436" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295827</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17683</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E41B132-BE75-4114-A4CE-F2226770F2E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3657600"/>
+          <a:ext cx="3953427" cy="3858163"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,21 +2201,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>591313</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>87524</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57541</xdr:rowOff>
+      <xdr:rowOff>164210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagem 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359A016E-F3CA-49D2-8D4F-A4260F18349D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC78F6A1-E116-4BF8-8067-1F091B8C7B04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,52 +2231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="365760"/>
-          <a:ext cx="5468113" cy="2800741"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>334187</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134262</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C02381-170D-4932-9334-A633E0AB736A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="365760"/>
-          <a:ext cx="5820587" cy="6535062"/>
+          <a:off x="0" y="548640"/>
+          <a:ext cx="12889124" cy="2724530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,19 +2547,19 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="K3" t="s">
         <v>3</v>
       </c>
@@ -1567,19 +2578,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1597,29 +2608,29 @@
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="16:16">
       <c r="P1" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="16:16">
       <c r="P6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2">
       <c r="B32" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2">
       <c r="B33" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2">
       <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
@@ -1638,11 +2649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB7FD34-A0EF-4E94-AFF2-6806EBCC23F5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -1657,6 +2668,65 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931CAD7-C85F-4084-87FC-A5D283110807}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://laravel-school.com/posts/how-to-use-slug-in-laravel-factory-17" xr:uid="{C7AA961D-9261-491E-B797-427574E3F820}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E4CBC2-42E5-4131-A630-F7BF00637DE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DB0427-137B-402E-AD57-10B125BC3EDD}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1664,19 +2734,19 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="K4" t="s">
         <v>67</v>
       </c>
@@ -1687,6 +2757,282 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B9E61D-93C2-4230-A742-814F7D754B61}">
+  <dimension ref="E1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="5:9">
+      <c r="E1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="5:9">
+      <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="5:9">
+      <c r="E3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9">
+      <c r="E4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="5:9">
+      <c r="E5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9">
+      <c r="E6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9">
+      <c r="E7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="5:9">
+      <c r="E10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9">
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9">
+      <c r="E15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="5:9">
+      <c r="E16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" display="https://stackoverflow.com/questions/32810231/add-public-to-asset-path-in-laravel" xr:uid="{BFD0C05A-033A-4283-B231-A836AD162BBD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F07E898C-B005-42C2-BD7E-F6B846253D0E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5202164E-4D18-4A73-A28E-09B308F32F00}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="12" customFormat="1">
+      <c r="A3" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="12" customFormat="1">
+      <c r="A5" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="12" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" s="12" customFormat="1">
+      <c r="A9" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13">
+      <c r="I21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1698,9 +3044,9 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="23.4">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1708,44 +3054,44 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19">
       <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19">
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="I5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" ht="21">
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="S9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="I10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="I11" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="I12" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="I13" t="s">
         <v>13</v>
       </c>
@@ -1769,9 +3115,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1790,9 +3136,9 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="5:15">
       <c r="E1" t="s">
         <v>23</v>
       </c>
@@ -1809,7 +3155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:15">
       <c r="H2" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +3169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:15">
       <c r="H3" t="s">
         <v>15</v>
       </c>
@@ -1844,9 +3190,9 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>24</v>
       </c>
@@ -1857,12 +3203,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -1870,7 +3216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>28</v>
       </c>
@@ -1878,7 +3224,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -1886,7 +3232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>34</v>
       </c>
@@ -1894,7 +3240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -1902,7 +3248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -1910,7 +3256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
         <v>35</v>
       </c>
@@ -1918,7 +3264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
         <v>39</v>
       </c>
@@ -1926,7 +3272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1934,7 +3280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1942,7 +3288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1950,7 +3296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>43</v>
       </c>
@@ -1958,7 +3304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>27</v>
       </c>
@@ -1966,7 +3312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -1974,7 +3320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3">
       <c r="B20" t="s">
         <v>46</v>
       </c>
@@ -1982,7 +3328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:3">
       <c r="C21" t="s">
         <v>46</v>
       </c>
@@ -2000,24 +3346,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>48</v>
       </c>
@@ -2039,9 +3385,9 @@
       <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:15">
       <c r="C3" t="s">
         <v>49</v>
       </c>
@@ -2063,19 +3409,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
@@ -2097,19 +3443,19 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>56</v>
       </c>
